--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ0020_契約情報）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ0020_契約情報）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B64982-18B9-4D48-BB01-9C4179B06F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B153A41-52C3-4547-A1AF-A2FD27BD8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
@@ -214,7 +214,7 @@
     <definedName name="P.3">'[3]プロセス（課税明細書）'!$A$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GJ0020_契約情報_チェックリスト!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GJ0020_契約情報_チェックリスト_項目チェック!$A$1:$CA$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">GJ0020_契約情報_チェックリスト_項目チェック!#REF!</definedName>
     <definedName name="q" hidden="1">{"'100DPro'!$A$1:$H$149"}</definedName>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -357,13 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存バグ</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>比較テスト結果</t>
     <rPh sb="0" eb="2">
       <t>ヒカク</t>
@@ -414,20 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存バグ　
-修正完了日</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>シュウセイカンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索画面チェックリスト</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -517,16 +496,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示すること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>解像度1920×1080　ディスプレイ100%　ブラウザ150%で正常に表示できること</t>
     <rPh sb="33" eb="35">
       <t>セイジョウ</t>
@@ -894,6 +863,45 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>テスト
+再確認</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ記録</t>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ　
+修正完了日</t>
+    <rPh sb="4" eb="8">
+      <t>シュウセイカンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1096,7 +1104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1629,6 +1637,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1645,7 +1671,7 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1659,9 +1685,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1744,69 +1767,72 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1819,6 +1845,12 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,35 +1869,68 @@
     <xf numFmtId="177" fontId="21" fillId="5" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1882,26 +1947,20 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1921,14 +1980,8 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1936,32 +1989,11 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1973,7 +2005,21 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2841,7 +2887,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
@@ -2851,339 +2897,374 @@
   <cols>
     <col min="3" max="3" width="44.625" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="26.875" customWidth="1"/>
-    <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="26.875" customWidth="1"/>
+    <col min="13" max="14" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="107"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="42"/>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="43"/>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="44"/>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="36"/>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="45"/>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="46"/>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A6" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="I6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+      <c r="K6" s="39"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1">
+      <c r="G8" s="35"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1">
+      <c r="G9" s="35"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="G10" s="35"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="G11" s="35"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="G12" s="35"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="G13" s="35"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="G14" s="35"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1">
+      <c r="G15" s="35"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1">
+      <c r="G16" s="35"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1">
+      <c r="G17" s="35"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1">
+      <c r="G18" s="35"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1">
+      <c r="G19" s="35"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1"/>
-    <row r="22" spans="1:10" ht="18" customHeight="1"/>
-    <row r="23" spans="1:10" ht="18" customHeight="1"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" customHeight="1"/>
+    <row r="22" spans="1:11" ht="18" customHeight="1"/>
+    <row r="23" spans="1:11" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:J7"/>
+  <mergeCells count="32">
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F1:H2"/>
-    <mergeCell ref="F3:H4"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G8:G20">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"―"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"NG"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G20" xr:uid="{3DAF85CC-17E8-4724-872A-4866557FB462}">
+      <formula1>$M$1:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3195,77 +3276,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="46" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.875" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="10.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="46" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="24">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="24">
-      <c r="A2" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" s="55" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
       <c r="F2" s="55"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -3276,133 +3357,133 @@
       <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="B5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="21">
         <v>1</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25"/>
+      <c r="E5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="37.5">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A6, -1, 0)), OFFSET(A6, -1, 0) + 1, OFFSET(A5, -1, 0) + 1)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <f t="shared" ref="A7:A12" ca="1" si="0">IF(ISNUMBER(OFFSET(A7, -1, 0)), OFFSET(A7, -1, 0) + 1, OFFSET(A6, -1, 0) + 1)</f>
         <v>3</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A8" s="20">
+      <c r="B7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A8" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A8, -1, 0)), OFFSET(A8, -1, 0) + 1, OFFSET(A11, -1, 0) + 1)</f>
         <v>4</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A9, -1, 0)), OFFSET(A9, -1, 0) + 1, OFFSET(A7, -1, 0) + 1)</f>
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
+      <c r="B9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="18.75">
+      <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A11" s="56" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -3412,74 +3493,74 @@
       <c r="G11" s="57"/>
       <c r="H11" s="58"/>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A12" s="20">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A12" s="19">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A13" s="20">
+      <c r="B12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A13" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A13, -1, 0)), OFFSET(A13, -1, 0) + 1, OFFSET(A12, -1, 0) + 1)</f>
         <v>8</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="18.75">
-      <c r="A14" s="20">
+      <c r="E13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="A14" s="19">
         <f ca="1">IF(ISNUMBER(OFFSET(A14, -1, 0)), OFFSET(A14, -1, 0) + 1, OFFSET(A13, -1, 0) + 1)</f>
         <v>9</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="18.75">
+      <c r="E14" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A15" s="56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -3490,25 +3571,25 @@
       <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <f ca="1">IF(ISNUMBER(OFFSET(A16, -1, 0)), OFFSET(A16, -1, 0) + 1, OFFSET(A15, -1, 0) + 1)</f>
         <v>10</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" ht="11.25" customHeight="1"/>
   </sheetData>
@@ -3542,9 +3623,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96DBBA2B-6463-4D9E-B3A4-914D5EF76BF8}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$L$1:$L$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F10 F16 F12:F14</xm:sqref>
+          <xm:sqref>F5:F10 F12:F14 F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3560,485 +3641,525 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="33"/>
-    <col min="2" max="4" width="1.25" style="33" customWidth="1"/>
-    <col min="5" max="17" width="1.625" style="33"/>
-    <col min="18" max="22" width="2" style="33" customWidth="1"/>
-    <col min="23" max="47" width="1.625" style="33"/>
-    <col min="48" max="57" width="2" style="33" customWidth="1"/>
-    <col min="58" max="58" width="3.5" style="33" customWidth="1"/>
-    <col min="59" max="60" width="3.375" style="33" customWidth="1"/>
-    <col min="61" max="16384" width="1.625" style="33"/>
+    <col min="1" max="1" width="1.625" style="32"/>
+    <col min="2" max="4" width="1.25" style="32" customWidth="1"/>
+    <col min="5" max="17" width="1.625" style="32"/>
+    <col min="18" max="22" width="2" style="32" customWidth="1"/>
+    <col min="23" max="47" width="1.625" style="32"/>
+    <col min="48" max="57" width="2" style="32" customWidth="1"/>
+    <col min="58" max="58" width="3.5" style="32" customWidth="1"/>
+    <col min="59" max="60" width="3.375" style="32" customWidth="1"/>
+    <col min="61" max="16384" width="1.625" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>48</v>
+      <c r="B2" s="32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB3" s="65"/>
+      <c r="BC3" s="65"/>
+      <c r="BD3" s="65"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="73" t="s">
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="63"/>
+    </row>
+    <row r="4" spans="2:76" ht="16.5">
+      <c r="B4" s="72">
+        <v>1</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="77"/>
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="79"/>
+      <c r="AH4" s="77"/>
+      <c r="AI4" s="77"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="77"/>
+      <c r="AN4" s="77"/>
+      <c r="AO4" s="77"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="79"/>
+      <c r="AR4" s="77"/>
+      <c r="AS4" s="77"/>
+      <c r="AT4" s="77"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="79"/>
+      <c r="AW4" s="77"/>
+      <c r="AX4" s="77"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="77"/>
+      <c r="BC4" s="77"/>
+      <c r="BD4" s="77"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="77"/>
+      <c r="BK4" s="77"/>
+      <c r="BL4" s="77"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
+      <c r="BX4" s="69"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B5" s="88">
+        <v>2</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="83"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="83"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="83"/>
+      <c r="BB5" s="84"/>
+      <c r="BC5" s="84"/>
+      <c r="BD5" s="84"/>
+      <c r="BE5" s="85"/>
+      <c r="BF5" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG5" s="87"/>
+      <c r="BH5" s="87"/>
+      <c r="BI5" s="83"/>
+      <c r="BJ5" s="84"/>
+      <c r="BK5" s="84"/>
+      <c r="BL5" s="84"/>
+      <c r="BM5" s="85"/>
+      <c r="BN5" s="92"/>
+      <c r="BO5" s="92"/>
+      <c r="BP5" s="92"/>
+      <c r="BQ5" s="92"/>
+      <c r="BR5" s="92"/>
+      <c r="BS5" s="92"/>
+      <c r="BT5" s="92"/>
+      <c r="BU5" s="92"/>
+      <c r="BV5" s="92"/>
+      <c r="BW5" s="92"/>
+      <c r="BX5" s="94"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B6" s="88">
+        <v>3</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="83"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="83"/>
+      <c r="AW6" s="84"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="83"/>
+      <c r="BB6" s="84"/>
+      <c r="BC6" s="84"/>
+      <c r="BD6" s="84"/>
+      <c r="BE6" s="85"/>
+      <c r="BF6" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG6" s="87"/>
+      <c r="BH6" s="87"/>
+      <c r="BI6" s="83"/>
+      <c r="BJ6" s="84"/>
+      <c r="BK6" s="84"/>
+      <c r="BL6" s="84"/>
+      <c r="BM6" s="85"/>
+      <c r="BN6" s="92"/>
+      <c r="BO6" s="92"/>
+      <c r="BP6" s="92"/>
+      <c r="BQ6" s="92"/>
+      <c r="BR6" s="92"/>
+      <c r="BS6" s="92"/>
+      <c r="BT6" s="92"/>
+      <c r="BU6" s="92"/>
+      <c r="BV6" s="92"/>
+      <c r="BW6" s="92"/>
+      <c r="BX6" s="94"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B7" s="98">
+        <v>4</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="96"/>
+      <c r="AS7" s="96"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="96"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="96"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="96"/>
+      <c r="BM7" s="97"/>
+      <c r="BN7" s="102"/>
+      <c r="BO7" s="102"/>
+      <c r="BP7" s="102"/>
+      <c r="BQ7" s="102"/>
+      <c r="BR7" s="102"/>
+      <c r="BS7" s="102"/>
+      <c r="BT7" s="102"/>
+      <c r="BU7" s="102"/>
+      <c r="BV7" s="102"/>
+      <c r="BW7" s="102"/>
+      <c r="BX7" s="104"/>
+    </row>
+    <row r="8" spans="2:76" ht="16.5">
+      <c r="B8" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:76" ht="16.5">
+      <c r="I9" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:76" ht="16.5">
+      <c r="I10" s="32" t="s">
         <v>64</v>
-      </c>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
-      <c r="BR3" s="60"/>
-      <c r="BS3" s="60"/>
-      <c r="BT3" s="60"/>
-      <c r="BU3" s="60"/>
-      <c r="BV3" s="60"/>
-      <c r="BW3" s="60"/>
-      <c r="BX3" s="61"/>
-    </row>
-    <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="103">
-        <v>1</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG4" s="102"/>
-      <c r="BH4" s="102"/>
-      <c r="BI4" s="65"/>
-      <c r="BJ4" s="66"/>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="67"/>
-      <c r="BN4" s="99"/>
-      <c r="BO4" s="99"/>
-      <c r="BP4" s="99"/>
-      <c r="BQ4" s="99"/>
-      <c r="BR4" s="99"/>
-      <c r="BS4" s="99"/>
-      <c r="BT4" s="99"/>
-      <c r="BU4" s="99"/>
-      <c r="BV4" s="99"/>
-      <c r="BW4" s="99"/>
-      <c r="BX4" s="100"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="75">
-        <v>2</v>
-      </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="81"/>
-      <c r="AD5" s="81"/>
-      <c r="AE5" s="81"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="81"/>
-      <c r="AI5" s="81"/>
-      <c r="AJ5" s="81"/>
-      <c r="AK5" s="82"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="81"/>
-      <c r="AN5" s="81"/>
-      <c r="AO5" s="81"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="80"/>
-      <c r="AR5" s="81"/>
-      <c r="AS5" s="81"/>
-      <c r="AT5" s="81"/>
-      <c r="AU5" s="82"/>
-      <c r="AV5" s="80"/>
-      <c r="AW5" s="81"/>
-      <c r="AX5" s="81"/>
-      <c r="AY5" s="81"/>
-      <c r="AZ5" s="82"/>
-      <c r="BA5" s="80"/>
-      <c r="BB5" s="81"/>
-      <c r="BC5" s="81"/>
-      <c r="BD5" s="81"/>
-      <c r="BE5" s="82"/>
-      <c r="BF5" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG5" s="86"/>
-      <c r="BH5" s="86"/>
-      <c r="BI5" s="80"/>
-      <c r="BJ5" s="81"/>
-      <c r="BK5" s="81"/>
-      <c r="BL5" s="81"/>
-      <c r="BM5" s="82"/>
-      <c r="BN5" s="79"/>
-      <c r="BO5" s="79"/>
-      <c r="BP5" s="79"/>
-      <c r="BQ5" s="79"/>
-      <c r="BR5" s="79"/>
-      <c r="BS5" s="79"/>
-      <c r="BT5" s="79"/>
-      <c r="BU5" s="79"/>
-      <c r="BV5" s="79"/>
-      <c r="BW5" s="79"/>
-      <c r="BX5" s="84"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="75">
-        <v>3</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="81"/>
-      <c r="AI6" s="81"/>
-      <c r="AJ6" s="81"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="81"/>
-      <c r="AN6" s="81"/>
-      <c r="AO6" s="81"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="80"/>
-      <c r="AR6" s="81"/>
-      <c r="AS6" s="81"/>
-      <c r="AT6" s="81"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="80"/>
-      <c r="AW6" s="81"/>
-      <c r="AX6" s="81"/>
-      <c r="AY6" s="81"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="80"/>
-      <c r="BB6" s="81"/>
-      <c r="BC6" s="81"/>
-      <c r="BD6" s="81"/>
-      <c r="BE6" s="82"/>
-      <c r="BF6" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG6" s="86"/>
-      <c r="BH6" s="86"/>
-      <c r="BI6" s="80"/>
-      <c r="BJ6" s="81"/>
-      <c r="BK6" s="81"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="82"/>
-      <c r="BN6" s="79"/>
-      <c r="BO6" s="79"/>
-      <c r="BP6" s="79"/>
-      <c r="BQ6" s="79"/>
-      <c r="BR6" s="79"/>
-      <c r="BS6" s="79"/>
-      <c r="BT6" s="79"/>
-      <c r="BU6" s="79"/>
-      <c r="BV6" s="79"/>
-      <c r="BW6" s="79"/>
-      <c r="BX6" s="84"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="87">
-        <v>4</v>
-      </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="94"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="94"/>
-      <c r="BF7" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG7" s="97"/>
-      <c r="BH7" s="97"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="93"/>
-      <c r="BK7" s="93"/>
-      <c r="BL7" s="93"/>
-      <c r="BM7" s="94"/>
-      <c r="BN7" s="91"/>
-      <c r="BO7" s="91"/>
-      <c r="BP7" s="91"/>
-      <c r="BQ7" s="91"/>
-      <c r="BR7" s="91"/>
-      <c r="BS7" s="91"/>
-      <c r="BT7" s="91"/>
-      <c r="BU7" s="91"/>
-      <c r="BV7" s="91"/>
-      <c r="BW7" s="91"/>
-      <c r="BX7" s="98"/>
-    </row>
-    <row r="8" spans="2:76" ht="16.5">
-      <c r="B8" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:76" ht="16.5">
-      <c r="I9" s="33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:76" ht="16.5">
-      <c r="I10" s="33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:76" ht="9" customHeight="1"/>
     <row r="12" spans="2:76" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BM4"/>
     <mergeCell ref="BN4:BX4"/>
     <mergeCell ref="BI3:BM3"/>
     <mergeCell ref="BN3:BX3"/>
@@ -4055,53 +4176,13 @@
     <mergeCell ref="AQ3:AU3"/>
     <mergeCell ref="AV3:AZ3"/>
     <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M4:BE7 BI4:BM7">
@@ -4122,7 +4203,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E01B9ED-7B4E-45B6-AAB9-516922A8B81B}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$L$1:$L$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
           <xm:sqref>M4:BE7 BI4:BM7</xm:sqref>
         </x14:dataValidation>

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ0020_契約情報）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ0020_契約情報）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AIplus_NAS\養鶏-互助防疫システム\backup\12_Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B153A41-52C3-4547-A1AF-A2FD27BD8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCC6F40-25DA-4B47-94D9-1768305118BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -496,16 +496,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ150%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>全体</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -865,16 +855,6 @@
       <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解像度1920×1080　ディスプレイ100%　ブラウザ100%で正常に表示できること</t>
-    <rPh sb="33" eb="35">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>テスト
@@ -904,6 +884,33 @@
       <t>ビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様変更</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ150%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ200%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -1776,6 +1783,33 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1794,9 +1828,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1815,24 +1846,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1845,6 +1858,138 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,146 +1999,8 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="22" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="39" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="33" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="34" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2905,146 +2912,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="36"/>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="52"/>
+      <c r="M4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="107"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="42"/>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="43"/>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="44"/>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="G6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="39"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="46"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -3052,8 +3064,8 @@
       <c r="G8" s="35"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1"/>
@@ -3065,8 +3077,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -3078,8 +3090,8 @@
       <c r="G10" s="35"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -3091,8 +3103,8 @@
       <c r="G11" s="35"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -3104,8 +3116,8 @@
       <c r="G12" s="35"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -3117,8 +3129,8 @@
       <c r="G13" s="35"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -3130,8 +3142,8 @@
       <c r="G14" s="35"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -3143,8 +3155,8 @@
       <c r="G15" s="35"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -3156,8 +3168,8 @@
       <c r="G16" s="35"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -3169,8 +3181,8 @@
       <c r="G17" s="35"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -3182,8 +3194,8 @@
       <c r="G18" s="35"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -3195,8 +3207,8 @@
       <c r="G19" s="35"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -3208,14 +3220,30 @@
       <c r="G20" s="35"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1"/>
     <row r="22" spans="1:11" ht="18" customHeight="1"/>
     <row r="23" spans="1:11" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="J11:K11"/>
@@ -3232,22 +3260,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
@@ -3306,13 +3318,13 @@
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="11" t="s">
         <v>14</v>
       </c>
@@ -3345,16 +3357,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -3367,10 +3379,10 @@
         <v>24</v>
       </c>
       <c r="D5" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -3388,10 +3400,10 @@
         <v>24</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -3403,16 +3415,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -3424,16 +3436,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -3445,16 +3457,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
@@ -3466,32 +3478,32 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A11" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="A11" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A12" s="19">
@@ -3499,16 +3511,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -3520,21 +3532,21 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -3543,32 +3555,32 @@
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A15" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="A15" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" thickBot="1">
       <c r="A16" s="25">
@@ -3576,16 +3588,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -3623,7 +3635,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96DBBA2B-6463-4D9E-B3A4-914D5EF76BF8}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F10 F12:F14 F16</xm:sqref>
         </x14:dataValidation>
@@ -3654,483 +3666,501 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="103" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" s="92"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="92"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR3" s="92"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="92"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="92"/>
+      <c r="AY3" s="92"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB3" s="103"/>
+      <c r="BC3" s="103"/>
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="104"/>
+      <c r="BF3" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG3" s="106"/>
+      <c r="BH3" s="106"/>
+      <c r="BI3" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="BJ3" s="92"/>
+      <c r="BK3" s="92"/>
+      <c r="BL3" s="92"/>
+      <c r="BM3" s="93"/>
+      <c r="BN3" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="65"/>
-      <c r="BD3" s="65"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="BJ3" s="70"/>
-      <c r="BK3" s="70"/>
-      <c r="BL3" s="70"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="63"/>
+      <c r="BO3" s="94"/>
+      <c r="BP3" s="94"/>
+      <c r="BQ3" s="94"/>
+      <c r="BR3" s="94"/>
+      <c r="BS3" s="94"/>
+      <c r="BT3" s="94"/>
+      <c r="BU3" s="94"/>
+      <c r="BV3" s="94"/>
+      <c r="BW3" s="94"/>
+      <c r="BX3" s="95"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="72">
+      <c r="B4" s="96">
         <v>1</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="86"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86"/>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="85"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="86"/>
+      <c r="BM4" s="87"/>
+      <c r="BN4" s="90"/>
+      <c r="BO4" s="90"/>
+      <c r="BP4" s="90"/>
+      <c r="BQ4" s="90"/>
+      <c r="BR4" s="90"/>
+      <c r="BS4" s="90"/>
+      <c r="BT4" s="90"/>
+      <c r="BU4" s="90"/>
+      <c r="BV4" s="90"/>
+      <c r="BW4" s="90"/>
+      <c r="BX4" s="91"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B5" s="80">
+        <v>2</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="75"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="75"/>
+      <c r="AQ5" s="73"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="75"/>
+      <c r="AV5" s="73"/>
+      <c r="AW5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="74"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG5" s="77"/>
+      <c r="BH5" s="77"/>
+      <c r="BI5" s="73"/>
+      <c r="BJ5" s="74"/>
+      <c r="BK5" s="74"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="75"/>
+      <c r="BN5" s="78"/>
+      <c r="BO5" s="78"/>
+      <c r="BP5" s="78"/>
+      <c r="BQ5" s="78"/>
+      <c r="BR5" s="78"/>
+      <c r="BS5" s="78"/>
+      <c r="BT5" s="78"/>
+      <c r="BU5" s="78"/>
+      <c r="BV5" s="78"/>
+      <c r="BW5" s="78"/>
+      <c r="BX5" s="79"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B6" s="80">
+        <v>3</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="79"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="79"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="79"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="79"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="77"/>
-      <c r="AY4" s="77"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="79"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG4" s="82"/>
-      <c r="BH4" s="82"/>
-      <c r="BI4" s="79"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="77"/>
-      <c r="BM4" s="78"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
-      <c r="BX4" s="69"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="88">
-        <v>2</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="84"/>
-      <c r="BC5" s="84"/>
-      <c r="BD5" s="84"/>
-      <c r="BE5" s="85"/>
-      <c r="BF5" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="83"/>
-      <c r="BJ5" s="84"/>
-      <c r="BK5" s="84"/>
-      <c r="BL5" s="84"/>
-      <c r="BM5" s="85"/>
-      <c r="BN5" s="92"/>
-      <c r="BO5" s="92"/>
-      <c r="BP5" s="92"/>
-      <c r="BQ5" s="92"/>
-      <c r="BR5" s="92"/>
-      <c r="BS5" s="92"/>
-      <c r="BT5" s="92"/>
-      <c r="BU5" s="92"/>
-      <c r="BV5" s="92"/>
-      <c r="BW5" s="92"/>
-      <c r="BX5" s="94"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="88">
-        <v>3</v>
-      </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91" t="s">
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="75"/>
+      <c r="AQ6" s="73"/>
+      <c r="AR6" s="74"/>
+      <c r="AS6" s="74"/>
+      <c r="AT6" s="74"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="73"/>
+      <c r="AW6" s="74"/>
+      <c r="AX6" s="74"/>
+      <c r="AY6" s="74"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="74"/>
+      <c r="BC6" s="74"/>
+      <c r="BD6" s="74"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG6" s="77"/>
+      <c r="BH6" s="77"/>
+      <c r="BI6" s="73"/>
+      <c r="BJ6" s="74"/>
+      <c r="BK6" s="74"/>
+      <c r="BL6" s="74"/>
+      <c r="BM6" s="75"/>
+      <c r="BN6" s="78"/>
+      <c r="BO6" s="78"/>
+      <c r="BP6" s="78"/>
+      <c r="BQ6" s="78"/>
+      <c r="BR6" s="78"/>
+      <c r="BS6" s="78"/>
+      <c r="BT6" s="78"/>
+      <c r="BU6" s="78"/>
+      <c r="BV6" s="78"/>
+      <c r="BW6" s="78"/>
+      <c r="BX6" s="79"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B7" s="68">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="93"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="84"/>
-      <c r="AJ6" s="84"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="84"/>
-      <c r="AN6" s="84"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="83"/>
-      <c r="AR6" s="84"/>
-      <c r="AS6" s="84"/>
-      <c r="AT6" s="84"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="84"/>
-      <c r="AX6" s="84"/>
-      <c r="AY6" s="84"/>
-      <c r="AZ6" s="85"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="84"/>
-      <c r="BC6" s="84"/>
-      <c r="BD6" s="84"/>
-      <c r="BE6" s="85"/>
-      <c r="BF6" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="83"/>
-      <c r="BJ6" s="84"/>
-      <c r="BK6" s="84"/>
-      <c r="BL6" s="84"/>
-      <c r="BM6" s="85"/>
-      <c r="BN6" s="92"/>
-      <c r="BO6" s="92"/>
-      <c r="BP6" s="92"/>
-      <c r="BQ6" s="92"/>
-      <c r="BR6" s="92"/>
-      <c r="BS6" s="92"/>
-      <c r="BT6" s="92"/>
-      <c r="BU6" s="92"/>
-      <c r="BV6" s="92"/>
-      <c r="BW6" s="92"/>
-      <c r="BX6" s="94"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="98">
-        <v>4</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="97"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="97"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="96"/>
-      <c r="AS7" s="96"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96"/>
-      <c r="AZ7" s="97"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="96"/>
-      <c r="BE7" s="97"/>
-      <c r="BF7" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG7" s="106"/>
-      <c r="BH7" s="106"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="96"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="96"/>
-      <c r="BM7" s="97"/>
-      <c r="BN7" s="102"/>
-      <c r="BO7" s="102"/>
-      <c r="BP7" s="102"/>
-      <c r="BQ7" s="102"/>
-      <c r="BR7" s="102"/>
-      <c r="BS7" s="102"/>
-      <c r="BT7" s="102"/>
-      <c r="BU7" s="102"/>
-      <c r="BV7" s="102"/>
-      <c r="BW7" s="102"/>
-      <c r="BX7" s="104"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="62"/>
+      <c r="BD7" s="62"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="BG7" s="67"/>
+      <c r="BH7" s="67"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="62"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="62"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="64"/>
+      <c r="BO7" s="64"/>
+      <c r="BP7" s="64"/>
+      <c r="BQ7" s="64"/>
+      <c r="BR7" s="64"/>
+      <c r="BS7" s="64"/>
+      <c r="BT7" s="64"/>
+      <c r="BU7" s="64"/>
+      <c r="BV7" s="64"/>
+      <c r="BW7" s="64"/>
+      <c r="BX7" s="65"/>
     </row>
     <row r="8" spans="2:76" ht="16.5">
       <c r="B8" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:76" ht="16.5">
       <c r="I9" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:76" ht="16.5">
       <c r="I10" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:76" ht="9" customHeight="1"/>
     <row r="12" spans="2:76" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="BN4:BX4"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AB5:AF5"/>
     <mergeCell ref="BI6:BM6"/>
     <mergeCell ref="BN6:BX6"/>
     <mergeCell ref="BI5:BM5"/>
@@ -4147,42 +4177,24 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AQ5:AU5"/>
     <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="BN4:BX4"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BH7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M4:BE7 BI4:BM7">
@@ -4203,7 +4215,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E01B9ED-7B4E-45B6-AAB9-516922A8B81B}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>M4:BE7 BI4:BM7</xm:sqref>
         </x14:dataValidation>
